--- a/normativa/Anexos/L05T02C04/L05T02C04A02.xlsx
+++ b/normativa/Anexos/L05T02C04/L05T02C04A02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="0" windowWidth="11670" windowHeight="9195"/>
+    <workbookView xWindow="9948" yWindow="0" windowWidth="11676" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -731,12 +731,12 @@
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K13" sqref="K13:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
@@ -2060,7 +2060,7 @@
   <pageSetup scale="96" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA BANCOS Y ENTIDADES FINANCIERAS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo IV
@@ -2074,9 +2074,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
